--- a/Output/Protection_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_for_WebMap_Table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,7 +425,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -521,16 +521,16 @@
         </is>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
         </is>
       </c>
       <c r="E6">
@@ -560,12 +560,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
         </is>
       </c>
       <c r="E8">
@@ -630,12 +630,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
@@ -694,12 +694,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
@@ -791,20 +791,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead</t>
         </is>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -826,20 +826,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead</t>
         </is>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -861,20 +861,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead</t>
         </is>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -896,20 +896,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_steelhead</t>
         </is>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Smolt Outmigration</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
@@ -931,20 +931,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>HQ_spring_chinook</t>
         </is>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -966,20 +966,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>HQ_spring_chinook</t>
         </is>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
@@ -1176,20 +1176,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead</t>
         </is>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -1289,12 +1289,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -1324,12 +1324,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -1673,14 +1673,14 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 02</t>
+          <t>Little Wenatchee River Lower 01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1698,17 +1698,14 @@
           <t>LF_spring_chinook</t>
         </is>
       </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
@@ -1738,12 +1735,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Adult Migration,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1770,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Adult Migration,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
@@ -1805,19 +1802,19 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Adult Migration,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 04</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1840,34 +1837,34 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Chewuch River Pearrygin 10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E44">
@@ -1875,19 +1872,19 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing</t>
+          <t>Smolt Outmigration</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Chiwawa River Middle 04</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1897,67 +1894,61 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Chiwawa River</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E45">
-        <v>3</v>
+          <t>LF_spring_chinook</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing</t>
+          <t>Smolt Outmigration</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Entiat River Potato 04</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E46">
-        <v>3</v>
+          <t>LF_spring_chinook</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing</t>
+          <t>Smolt Outmigration</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1976,33 +1967,33 @@
         </is>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing</t>
+          <t>Smolt Outmigration,Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2011,42 +2002,42 @@
         </is>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Smolt Outmigration,Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Entiat River Lake 02</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2055,33 +2046,30 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Entiat River Lake 11</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E50">
-        <v>3</v>
+          <t>LF_spring_chinook</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2090,14 +2078,14 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Little Wenatchee River Lower 02</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2107,12 +2095,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E51">
@@ -2125,14 +2113,14 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2151,7 +2139,7 @@
         </is>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2160,14 +2148,14 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2190,19 +2178,19 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>White River Lower 05</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2212,13 +2200,16 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_bull_trout</t>
-        </is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E54">
+        <v>3</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2227,199 +2218,184 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 01</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E55">
-        <v>1</v>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 02</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E56">
-        <v>3</v>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 03</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E57">
-        <v>1</v>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E58">
-        <v>3</v>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E59">
-        <v>3</v>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Stormy Creek 01</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2429,19 +2405,19 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 07</t>
+          <t>White River Lower 05</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2451,243 +2427,231 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E61">
-        <v>3</v>
+          <t>LF_spring_chinook,LF_bull_trout</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Entiat River Potato 01</t>
+          <t>Chewuch River Doe 08</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Entiat River Potato 03</t>
+          <t>Icicle Creek Lower 06</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>LF_steelhead</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Icicle Creek Lower 07</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>LF_steelhead</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Methow River Thompson 03</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E65">
-        <v>3</v>
+          <t>LF_steelhead</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Methow River Thompson 05</t>
+          <t>Antoine 16-1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E66">
-        <v>1</v>
+          <t>LF_steelhead</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Methow River Thompson 06</t>
+          <t>Antoine 16-2</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E67">
-        <v>3</v>
+          <t>LF_steelhead</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Antoine 16-3</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2695,34 +2659,31 @@
           <t>LF_steelhead</t>
         </is>
       </c>
-      <c r="E68">
-        <v>3</v>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Entiat River Mills 02</t>
+          <t>Antoine 16-5</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2730,34 +2691,31 @@
           <t>LF_steelhead</t>
         </is>
       </c>
-      <c r="E69">
-        <v>3</v>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Entiat River Mills 03</t>
+          <t>Antoine 16-6</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2765,34 +2723,31 @@
           <t>LF_steelhead</t>
         </is>
       </c>
-      <c r="E70">
-        <v>3</v>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Entiat River Mills 04</t>
+          <t>Bonaparte 16-1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Bonaparte Creek-Lower DS</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2800,34 +2755,31 @@
           <t>LF_steelhead</t>
         </is>
       </c>
-      <c r="E71">
-        <v>2</v>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>Loup Loup 16-1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2835,34 +2787,31 @@
           <t>LF_steelhead</t>
         </is>
       </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Entiat River Mills 06</t>
+          <t>Loup Loup 16-2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2870,34 +2819,31 @@
           <t>LF_steelhead</t>
         </is>
       </c>
-      <c r="E73">
-        <v>3</v>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Entiat River Mills 07</t>
+          <t>Loup Loup 16-3</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2907,29 +2853,29 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Entiat River Mills 08</t>
+          <t>Salmon 16-10</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2937,31 +2883,34 @@
           <t>LF_steelhead</t>
         </is>
       </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Salmon 16-12</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2969,34 +2918,31 @@
           <t>LF_steelhead</t>
         </is>
       </c>
-      <c r="E76">
-        <v>3</v>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Salmon 16-2</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3006,29 +2952,29 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3036,31 +2982,34 @@
           <t>LF_steelhead</t>
         </is>
       </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Salmon 16-8</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3073,29 +3022,29 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Similkameen 16-2</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3105,29 +3054,29 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Similkameen 16-3</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3135,31 +3084,34 @@
           <t>LF_steelhead</t>
         </is>
       </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Similkameen 16-6</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3169,19 +3121,19 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Antoine 16-1</t>
+          <t>Omak 16-2</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3191,7 +3143,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Omak Creek-Lower DS</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3199,24 +3151,21 @@
           <t>LF_steelhead</t>
         </is>
       </c>
-      <c r="E83">
-        <v>3</v>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Summer Rearing</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Antoine 16-2</t>
+          <t>Omak 16-3</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3226,7 +3175,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Omak Creek-Lower DS</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3236,19 +3185,19 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Summer Rearing</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Antoine 16-3</t>
+          <t>Omak 16-5</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3258,7 +3207,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3266,24 +3215,21 @@
           <t>LF_steelhead</t>
         </is>
       </c>
-      <c r="E85">
-        <v>2</v>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Summer Rearing</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Antoine 16-5</t>
+          <t>Omak 16-1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3293,7 +3239,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Omak Creek-Lower DS</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3301,24 +3247,21 @@
           <t>LF_steelhead</t>
         </is>
       </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Antoine 16-6</t>
+          <t>Omak 16-6</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3328,7 +3271,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3336,24 +3279,21 @@
           <t>LF_steelhead</t>
         </is>
       </c>
-      <c r="E87">
-        <v>2</v>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Bonaparte 16-1</t>
+          <t>Omak 16-7</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3363,7 +3303,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Bonaparte Creek-Lower DS</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3373,19 +3313,19 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Loup Loup 16-1</t>
+          <t>Omak 16-8</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3395,7 +3335,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3403,24 +3343,21 @@
           <t>LF_steelhead</t>
         </is>
       </c>
-      <c r="E89">
-        <v>3</v>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Loup Loup 16-2</t>
+          <t>Omak 16-9</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3430,7 +3367,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3438,24 +3375,21 @@
           <t>LF_steelhead</t>
         </is>
       </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Loup Loup 16-3</t>
+          <t>Salmon 16-3</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3465,7 +3399,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3473,24 +3407,21 @@
           <t>LF_steelhead</t>
         </is>
       </c>
-      <c r="E91">
-        <v>2</v>
-      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Salmon 16-10</t>
+          <t>Salmon 16-7</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3509,344 +3440,326 @@
         </is>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Salmon 16-12</t>
+          <t>Cougar Creek 01</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Upper Mad River</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_bull_trout</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Salmon 16-2</t>
+          <t>Mad River Upper 01</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Upper Mad River</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_bull_trout</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Salmon 16-4</t>
+          <t>Mad River Upper 02</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Upper Mad River</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E95">
-        <v>3</v>
+          <t>LF_bull_trout</t>
+        </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Salmon 16-8</t>
+          <t>Mad River Upper 03</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Upper Mad River</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E96">
-        <v>3</v>
+          <t>LF_bull_trout</t>
+        </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Similkameen 16-2</t>
+          <t>Mad River Upper 04</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Upper Mad River</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E97">
-        <v>3</v>
+          <t>LF_bull_trout</t>
+        </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Similkameen 16-3</t>
+          <t>Mad River Upper 05</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Upper Mad River</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E98">
-        <v>3</v>
+          <t>LF_bull_trout</t>
+        </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Similkameen 16-6</t>
+          <t>Chikamin Creek 01</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Chikamin Creek</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_bull_trout</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Omak 16-2</t>
+          <t>Chikamin Creek 03</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Chikamin Creek</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E100">
-        <v>3</v>
+          <t>LF_bull_trout</t>
+        </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Summer Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Omak 16-3</t>
+          <t>Chiwaukum Creek 02</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Chiwaukum Creek</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E101">
-        <v>1</v>
+          <t>LF_bull_trout</t>
+        </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Summer Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Omak 16-5</t>
+          <t>Twisp River Upper 01</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_bull_trout</t>
         </is>
       </c>
       <c r="E102">
@@ -3854,289 +3767,76 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Summer Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Omak 16-1</t>
+          <t>Twisp River Upper 02</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E103">
-        <v>2</v>
+          <t>LF_bull_trout</t>
+        </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Omak 16-6</t>
+          <t>Twisp River Upper 03</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E104">
-        <v>2</v>
+          <t>LF_bull_trout</t>
+        </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Omak 16-7</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Habitat Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Omak 16-8</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Habitat Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Omak 16-9</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E107">
-        <v>2</v>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Habitat Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Salmon 16-3</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Habitat Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Salmon 16-7</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Habitat Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Mad River Upper 02</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Entiat</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Upper Mad River</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>LF_bull_trout</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Adult Non-Spawning</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Habitat Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>

--- a/Output/Protection_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_for_WebMap_Table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,7 +375,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Prioritization Pathway</t>
+          <t>Priority Actions</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -390,7 +390,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Priority Actions</t>
+          <t>Action Categories</t>
         </is>
       </c>
     </row>
@@ -412,7 +412,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E2">
@@ -447,7 +447,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E3">
@@ -482,7 +482,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E4">
@@ -517,7 +517,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E5">
@@ -525,7 +525,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E6">
@@ -560,7 +560,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E7">
@@ -595,7 +595,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E8">
@@ -630,7 +630,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E11">
@@ -729,7 +729,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E12">
@@ -764,7 +764,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E13">
@@ -799,7 +799,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E14">
@@ -834,7 +834,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E15">
@@ -869,7 +869,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_steelhead</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E16">
@@ -904,7 +904,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Smolt Outmigration</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E17">
@@ -939,7 +939,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E18">
@@ -974,7 +974,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E19">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E20">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E21">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E22">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E23">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E24">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E25">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E26">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E27">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E28">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E29">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E32">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook,HQ_bull_trout,LF_bull_trout</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E33">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HQ_steelhead</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E34">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HQ_steelhead,LF_steelhead</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E35">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HQ_steelhead,LF_steelhead</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E36">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HQ_steelhead,LF_steelhead</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E37">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HQ_steelhead,LF_steelhead</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E38">
@@ -1680,7 +1680,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 01</t>
+          <t>Little Wenatchee River Lower 02</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1695,12 +1695,15 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E39">
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Adult Migration</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1727,7 +1730,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E40">
@@ -1735,7 +1738,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1762,7 +1765,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E41">
@@ -1770,7 +1773,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1797,12 +1800,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1814,7 +1817,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1829,15 +1832,15 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1849,30 +1852,30 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 10</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Smolt Outmigration</t>
+          <t>Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1884,7 +1887,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Chiwawa River Middle 04</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1894,49 +1897,55 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Middle Chiwawa River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E45">
+        <v>3</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Smolt Outmigration</t>
+          <t>Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Entiat River Potato 04</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E46">
+        <v>3</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Smolt Outmigration</t>
+          <t>Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1948,7 +1957,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1963,81 +1972,72 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E47">
-        <v>1</v>
+          <t>Prevent Limiting Factors</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Smolt Outmigration,Spawning and Incubation,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E48">
-        <v>3</v>
+          <t>Prevent Limiting Factors</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Smolt Outmigration,Winter Rearing,Summer Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Entiat River Lake 02</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E49">
-        <v>3</v>
+          <t>Prevent Limiting Factors</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2046,29 +2046,29 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Entiat River Lake 11</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2078,14 +2078,14 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 02</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2095,16 +2095,13 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E51">
-        <v>1</v>
+          <t>Prevent Limiting Factors</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2120,7 +2117,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 04</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2135,11 +2132,8 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E52">
-        <v>1</v>
+          <t>Prevent Limiting Factors</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2155,7 +2149,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2170,7 +2164,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E53">
@@ -2178,7 +2172,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2190,7 +2184,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>White River Lower 05</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2200,16 +2194,13 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E54">
-        <v>3</v>
+          <t>Prevent Limiting Factors</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2225,91 +2216,100 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Chewuch River Pearrygin 01</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E55">
+        <v>1</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Chewuch River Pearrygin 02</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E56">
+        <v>3</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Chewuch River Pearrygin 03</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E57">
+        <v>1</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2321,27 +2321,30 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E58">
+        <v>3</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2353,27 +2356,30 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E59">
+        <v>2</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2385,27 +2391,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Stormy Creek 01</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2417,7 +2423,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>White River Lower 05</t>
+          <t>Chiwawa River Lower 07</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2427,81 +2433,84 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_bull_trout</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E61">
+        <v>3</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 08</t>
+          <t>Entiat River Potato 01</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Chewuch River-Doe Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 06</t>
+          <t>Entiat River Potato 03</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Adult Migration</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2513,27 +2522,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 07</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Adult Migration</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2545,27 +2554,30 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Methow River Thompson 03</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E65">
+        <v>3</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2577,27 +2589,30 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Antoine 16-1</t>
+          <t>Methow River Thompson 05</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E66">
+        <v>2</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2609,59 +2624,62 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Antoine 16-2</t>
+          <t>Methow River Thompson 06</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E67">
+        <v>1</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Antoine 16-3</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2673,91 +2691,100 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Antoine 16-5</t>
+          <t>Entiat River Mills 02</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E69">
+        <v>1</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Antoine 16-6</t>
+          <t>Entiat River Mills 03</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E70">
+        <v>3</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Bonaparte 16-1</t>
+          <t>Entiat River Mills 04</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Bonaparte Creek-Lower DS</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E71">
+        <v>2</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2769,260 +2796,257 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Loup Loup 16-1</t>
+          <t>Entiat River Mills 05</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E72">
+        <v>1</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Loup Loup 16-2</t>
+          <t>Entiat River Mills 06</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E73">
+        <v>2</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Loup Loup 16-3</t>
+          <t>Entiat River Mills 07</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Salmon 16-10</t>
+          <t>Entiat River Mills 08</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E75">
-        <v>3</v>
+          <t>Prevent Limiting Factors</t>
+        </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Salmon 16-12</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Salmon 16-2</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Salmon 16-4</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E78">
-        <v>3</v>
+          <t>Prevent Limiting Factors</t>
+        </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Salmon 16-8</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E79">
-        <v>3</v>
+          <t>Prevent Limiting Factors</t>
+        </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3034,27 +3058,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Similkameen 16-2</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3066,30 +3090,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Similkameen 16-3</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E81">
-        <v>3</v>
+          <t>Prevent Limiting Factors</t>
+        </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3101,39 +3122,39 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Similkameen 16-6</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Omak 16-2</t>
+          <t>Antoine 16-1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3143,29 +3164,29 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Omak 16-3</t>
+          <t>Antoine 16-2</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3175,17 +3196,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3197,7 +3218,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Omak 16-5</t>
+          <t>Antoine 16-3</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3207,29 +3228,29 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Omak 16-1</t>
+          <t>Antoine 16-5</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3239,17 +3260,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3261,7 +3282,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Omak 16-6</t>
+          <t>Antoine 16-6</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3271,17 +3292,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3293,7 +3314,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Omak 16-7</t>
+          <t>Bonaparte 16-1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3303,29 +3324,29 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Bonaparte Creek-Lower DS</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Omak 16-8</t>
+          <t>Loup Loup 16-1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3335,17 +3356,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3357,7 +3378,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Omak 16-9</t>
+          <t>Loup Loup 16-2</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3367,17 +3388,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3389,7 +3410,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Salmon 16-3</t>
+          <t>Loup Loup 16-3</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3399,17 +3420,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3421,7 +3442,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Salmon 16-7</t>
+          <t>Salmon 16-10</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3436,47 +3457,47 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Cougar Creek 01</t>
+          <t>Salmon 16-12</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Upper Mad River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LF_bull_trout</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Adult Migration</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3488,353 +3509,554 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Mad River Upper 01</t>
+          <t>Salmon 16-2</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Upper Mad River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LF_bull_trout</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Mad River Upper 02</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Upper Mad River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LF_bull_trout</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E95">
+        <v>3</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Adult Migration</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Mad River Upper 03</t>
+          <t>Salmon 16-8</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Upper Mad River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LF_bull_trout</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E96">
+        <v>3</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Adult Migration</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Mad River Upper 04</t>
+          <t>Similkameen 16-2</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Upper Mad River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>LF_bull_trout</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Adult Migration</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Mad River Upper 05</t>
+          <t>Similkameen 16-3</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Upper Mad River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LF_bull_trout</t>
-        </is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E98">
+        <v>3</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Adult Migration</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Chikamin Creek 01</t>
+          <t>Similkameen 16-6</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Chikamin Creek</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LF_bull_trout</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Chikamin Creek 03</t>
+          <t>Omak 16-2</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Chikamin Creek</t>
+          <t>Omak Creek-Lower DS</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LF_bull_trout</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Holding and Maturation,Summer Rearing</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Chiwaukum Creek 02</t>
+          <t>Omak 16-3</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Chiwaukum Creek</t>
+          <t>Omak Creek-Lower DS</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LF_bull_trout</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Holding and Maturation,Summer Rearing</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Twisp River Upper 01</t>
+          <t>Omak 16-5</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Upper Twisp River</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LF_bull_trout</t>
-        </is>
-      </c>
-      <c r="E102">
-        <v>3</v>
+          <t>Prevent Limiting Factors</t>
+        </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Holding and Maturation,Summer Rearing</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Twisp River Upper 02</t>
+          <t>Omak 16-1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Upper Twisp River</t>
+          <t>Omak Creek-Lower DS</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>LF_bull_trout</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Twisp River Upper 03</t>
+          <t>Omak 16-6</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Upper Twisp River</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LF_bull_trout</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Omak 16-7</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Omak 16-8</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Omak 16-9</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Salmon 16-3</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Salmon 16-7</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Management and Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Mad River Upper 04</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Upper Mad River</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Adult Non-Spawning</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>Management</t>
         </is>

--- a/Output/Protection_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_for_WebMap_Table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,8 +415,10 @@
           <t>Maintain Reach Function</t>
         </is>
       </c>
-      <c r="E2">
-        <v>3</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -450,8 +452,10 @@
           <t>Maintain Reach Function</t>
         </is>
       </c>
-      <c r="E3">
-        <v>3</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -485,8 +489,10 @@
           <t>Maintain Reach Function</t>
         </is>
       </c>
-      <c r="E4">
-        <v>3</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -520,12 +526,14 @@
           <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -552,15 +560,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
-        </is>
-      </c>
-      <c r="E6">
-        <v>3</v>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -590,12 +600,14 @@
           <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E7">
-        <v>3</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -622,15 +634,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
-        </is>
-      </c>
-      <c r="E8">
-        <v>3</v>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -662,7 +676,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -694,7 +708,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -724,12 +738,14 @@
           <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E11">
-        <v>3</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -759,12 +775,14 @@
           <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E12">
-        <v>3</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -791,15 +809,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E13">
-        <v>1</v>
+          <t>Maintain Reach Function</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -826,15 +846,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E14">
-        <v>2</v>
+          <t>Maintain Reach Function</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -846,7 +868,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -861,27 +883,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E15">
-        <v>1</v>
+          <t>Maintain Reach Function</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -891,32 +915,34 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E16">
-        <v>3</v>
+          <t>Maintain Reach Function</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -926,20 +952,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E17">
-        <v>1</v>
+          <t>Maintain Reach Function</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -951,17 +979,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Little Wenatchee River Lower 03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -969,59 +997,63 @@
           <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E18">
-        <v>2</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 03</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E19">
-        <v>3</v>
+          <t>Maintain Reach Function</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1031,7 +1063,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1039,8 +1071,10 @@
           <t>Maintain Reach Function</t>
         </is>
       </c>
-      <c r="E20">
-        <v>1</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1056,7 +1090,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1074,8 +1108,10 @@
           <t>Maintain Reach Function</t>
         </is>
       </c>
-      <c r="E21">
-        <v>1</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1084,14 +1120,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1109,8 +1145,10 @@
           <t>Maintain Reach Function</t>
         </is>
       </c>
-      <c r="E22">
-        <v>3</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1126,7 +1164,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1136,7 +1174,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1144,8 +1182,10 @@
           <t>Maintain Reach Function</t>
         </is>
       </c>
-      <c r="E23">
-        <v>3</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1154,14 +1194,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methow River Thompson 07</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1176,15 +1216,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E24">
-        <v>1</v>
+          <t>Maintain Reach Function</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1196,30 +1238,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
-        </is>
-      </c>
-      <c r="E25">
-        <v>2</v>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1231,30 +1275,32 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Methow River Thompson 09</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
-        </is>
-      </c>
-      <c r="E26">
-        <v>1</v>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1266,7 +1312,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1284,12 +1330,14 @@
           <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E27">
-        <v>3</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1301,30 +1349,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E28">
-        <v>2</v>
+          <t>Maintain Reach Function</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1336,30 +1381,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E29">
-        <v>2</v>
+          <t>Maintain Reach Function</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1371,7 +1413,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1389,6 +1431,11 @@
           <t>Maintain Reach Function</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1396,34 +1443,39 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>White River Lower 08</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1435,17 +1487,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Big Meadow Creek 01</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Big Meadow Creek</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1453,8 +1505,10 @@
           <t>Maintain Reach Function</t>
         </is>
       </c>
-      <c r="E32">
-        <v>3</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1470,17 +1524,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>White River Lower 08</t>
+          <t>Salmon 16-11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1488,59 +1542,63 @@
           <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E33">
-        <v>3</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Big Meadow Creek 01</t>
+          <t>Salmon 16-6</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Big Meadow Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
-        </is>
-      </c>
-      <c r="E34">
-        <v>3</v>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Salmon 16-11</t>
+          <t>Salmon 16-9</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1558,24 +1616,26 @@
           <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E35">
-        <v>3</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Salmon 16-6</t>
+          <t>Tonasket 16-2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1585,7 +1645,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Tonasket Creek DS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1593,34 +1653,36 @@
           <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E36">
-        <v>2</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Salmon 16-9</t>
+          <t>Twisp River Upper 02</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1628,34 +1690,36 @@
           <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E37">
-        <v>2</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Tonasket 16-2</t>
+          <t>Twisp River Upper 03</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tonasket Creek DS</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1663,34 +1727,36 @@
           <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E38">
-        <v>1</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 02</t>
+          <t>Chewuch River Doe 08</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1698,34 +1764,31 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 04</t>
+          <t>Entiat River Lake 02</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1733,8 +1796,10 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E40">
-        <v>3</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1750,7 +1815,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 05</t>
+          <t>Little Wenatchee River Lower 02</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1768,8 +1833,10 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E41">
-        <v>3</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1778,14 +1845,14 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 06</t>
+          <t>Little Wenatchee River Lower 04</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1803,9 +1870,14 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Adult Migration,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1817,7 +1889,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 04</t>
+          <t>Little Wenatchee River Lower 05</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1827,7 +1899,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1835,24 +1907,26 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E43">
-        <v>1</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing</t>
+          <t>Adult Migration,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Little Wenatchee River Lower 06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1862,7 +1936,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1870,34 +1944,31 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing</t>
+          <t>Adult Migration,Smolt Outmigration,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Methow River Thompson 01</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1905,12 +1976,14 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E45">
-        <v>3</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing</t>
+          <t>Smolt Outmigration</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1922,7 +1995,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1940,12 +2013,14 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E46">
-        <v>3</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1957,7 +2032,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1975,21 +2050,26 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2005,6 +2085,11 @@
       <c r="D48" t="inlineStr">
         <is>
           <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2021,7 +2106,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2037,6 +2122,11 @@
       <c r="D49" t="inlineStr">
         <is>
           <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2053,7 +2143,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2069,6 +2159,11 @@
       <c r="D50" t="inlineStr">
         <is>
           <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2085,17 +2180,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2103,31 +2198,36 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Antoine 16-1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2137,7 +2237,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2149,17 +2249,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Antoine 16-2</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2167,34 +2267,31 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E53">
-        <v>3</v>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>White River Lower 05</t>
+          <t>Antoine 16-3</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2204,7 +2301,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2216,17 +2313,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 01</t>
+          <t>Antoine 16-5</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2234,34 +2331,31 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 02</t>
+          <t>Antoine 16-6</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2269,12 +2363,9 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E56">
-        <v>3</v>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2286,17 +2377,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 03</t>
+          <t>Bonaparte 16-1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Bonaparte Creek-Lower DS</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2304,12 +2395,9 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2321,17 +2409,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Loup Loup 16-1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2339,34 +2427,31 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E58">
-        <v>3</v>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Loup Loup 16-2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2374,34 +2459,31 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Stormy Creek 01</t>
+          <t>Loup Loup 16-3</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2411,29 +2493,29 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 07</t>
+          <t>Salmon 16-10</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2441,12 +2523,14 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E61">
-        <v>3</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2458,17 +2542,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Entiat River Potato 01</t>
+          <t>Salmon 16-12</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2478,29 +2562,29 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Entiat River Potato 03</t>
+          <t>Salmon 16-2</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2510,29 +2594,29 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2540,31 +2624,36 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Methow River Thompson 03</t>
+          <t>Salmon 16-8</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2572,12 +2661,14 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E65">
-        <v>3</v>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2589,17 +2680,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Methow River Thompson 05</t>
+          <t>Similkameen 16-2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2607,12 +2698,9 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2624,17 +2712,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Methow River Thompson 06</t>
+          <t>Similkameen 16-3</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2642,12 +2730,14 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E67">
-        <v>1</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2659,17 +2749,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Similkameen 16-6</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2679,29 +2769,29 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Entiat River Mills 02</t>
+          <t>Omak 16-2</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Omak Creek-Lower DS</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2709,34 +2799,31 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Holding and Maturation,Summer Rearing</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Entiat River Mills 03</t>
+          <t>Omak 16-3</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Omak Creek-Lower DS</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2744,34 +2831,31 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E70">
-        <v>3</v>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Holding and Maturation,Summer Rearing</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Entiat River Mills 04</t>
+          <t>Omak 16-5</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2779,34 +2863,31 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E71">
-        <v>2</v>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Holding and Maturation,Summer Rearing</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>Omak 16-1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Omak Creek-Lower DS</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2814,34 +2895,31 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Entiat River Mills 06</t>
+          <t>Omak 16-6</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2849,34 +2927,31 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E73">
-        <v>2</v>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Entiat River Mills 07</t>
+          <t>Omak 16-7</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2886,29 +2961,29 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Entiat River Mills 08</t>
+          <t>Omak 16-8</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2918,29 +2993,29 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Omak 16-9</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2950,29 +3025,29 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Salmon 16-3</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2982,29 +3057,29 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Salmon 16-7</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3012,9 +3087,14 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3026,7 +3106,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Upper 01</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3036,7 +3116,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3044,1019 +3124,17 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
-        <is>
-          <t>Management and Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Twisp River Lower 07</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Lower Twisp River</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Management and Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Twisp River Lower 08</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Lower Twisp River</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Management and Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Twisp River Lower 10</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Lower Twisp River</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Management and Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Antoine 16-1</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Antoine Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Management and Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Antoine 16-2</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Antoine Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Antoine 16-3</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Antoine Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Management and Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Antoine 16-5</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Antoine Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Antoine 16-6</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Antoine Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Bonaparte 16-1</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Bonaparte Creek-Lower DS</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Management and Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Loup Loup 16-1</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Loup Loup Creek-Lower DS</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Loup Loup 16-2</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Loup Loup Creek-Lower DS</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Loup Loup 16-3</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Loup Loup Creek-Lower DS</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Salmon 16-10</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E92">
-        <v>3</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Management</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Salmon 16-12</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Management</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Salmon 16-2</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Salmon 16-4</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E95">
-        <v>3</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Salmon 16-8</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E96">
-        <v>3</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Management and Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Similkameen 16-2</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Similkameen River</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Management and Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Similkameen 16-3</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Similkameen River</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E98">
-        <v>3</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Management and Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Similkameen 16-6</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Similkameen River</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Management</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Omak 16-2</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower DS</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Holding and Maturation,Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Omak 16-3</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower DS</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Holding and Maturation,Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Omak 16-5</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Holding and Maturation,Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Omak 16-1</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower DS</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Omak 16-6</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Omak 16-7</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Omak 16-8</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Omak 16-9</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Salmon 16-3</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Salmon 16-7</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Management and Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Mad River Upper 04</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Entiat</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Upper Mad River</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Adult Non-Spawning</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
         <is>
           <t>Management</t>
         </is>

--- a/Output/Protection_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_for_WebMap_Table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -883,7 +883,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Smolt Outmigration</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Smolt Outmigration</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Adult Migration,Smolt Outmigration,Spawning and Incubation</t>
+          <t>Adult Migration,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1958,17 +1958,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Methow River Thompson 01</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1978,12 +1978,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Smolt Outmigration</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1995,7 +1995,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 04</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2069,7 +2069,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2106,7 +2106,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2143,17 +2143,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2168,29 +2168,29 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Smolt Outmigration</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Antoine 16-1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2198,26 +2198,21 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Antoine 16-1</t>
+          <t>Antoine 16-2</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2242,14 +2237,14 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Antoine 16-2</t>
+          <t>Antoine 16-3</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2274,14 +2269,14 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Antoine 16-3</t>
+          <t>Antoine 16-5</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2306,14 +2301,14 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Antoine 16-5</t>
+          <t>Antoine 16-6</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2345,7 +2340,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Antoine 16-6</t>
+          <t>Bonaparte 16-1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2355,7 +2350,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Bonaparte Creek-Lower DS</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2370,14 +2365,14 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Bonaparte 16-1</t>
+          <t>Loup Loup 16-1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2387,7 +2382,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bonaparte Creek-Lower DS</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2402,14 +2397,14 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Loup Loup 16-1</t>
+          <t>Loup Loup 16-2</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2441,7 +2436,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Loup Loup 16-2</t>
+          <t>Loup Loup 16-3</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2473,7 +2468,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Loup Loup 16-3</t>
+          <t>Salmon 16-10</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2483,7 +2478,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2491,6 +2486,11 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
@@ -2498,14 +2498,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Salmon 16-10</t>
+          <t>Salmon 16-12</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2521,11 +2521,6 @@
       <c r="D61" t="inlineStr">
         <is>
           <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2542,7 +2537,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Salmon 16-12</t>
+          <t>Salmon 16-2</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2567,14 +2562,14 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Salmon 16-2</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2590,6 +2585,11 @@
       <c r="D63" t="inlineStr">
         <is>
           <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2606,7 +2606,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Salmon 16-4</t>
+          <t>Salmon 16-8</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2636,14 +2636,14 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Salmon 16-8</t>
+          <t>Similkameen 16-2</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2653,17 +2653,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2680,7 +2675,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Similkameen 16-2</t>
+          <t>Similkameen 16-3</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2696,6 +2691,11 @@
       <c r="D66" t="inlineStr">
         <is>
           <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2712,7 +2712,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Similkameen 16-3</t>
+          <t>Similkameen 16-6</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2730,11 +2730,6 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
@@ -2742,14 +2737,14 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Similkameen 16-6</t>
+          <t>Omak 16-2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2759,7 +2754,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Omak Creek-Lower DS</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2769,19 +2764,19 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Summer Rearing</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Protection</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Omak 16-2</t>
+          <t>Omak 16-3</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2813,7 +2808,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Omak 16-3</t>
+          <t>Omak 16-5</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2823,7 +2818,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2845,7 +2840,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Omak 16-5</t>
+          <t>Omak 16-1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2855,7 +2850,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Omak Creek-Lower DS</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2865,7 +2860,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Summer Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2877,7 +2872,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Omak 16-1</t>
+          <t>Omak 16-6</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2887,7 +2882,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2909,7 +2904,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Omak 16-6</t>
+          <t>Omak 16-7</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2941,7 +2936,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Omak 16-7</t>
+          <t>Omak 16-8</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2973,7 +2968,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Omak 16-8</t>
+          <t>Omak 16-9</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3005,7 +3000,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Omak 16-9</t>
+          <t>Salmon 16-3</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3015,7 +3010,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3037,7 +3032,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Salmon 16-3</t>
+          <t>Salmon 16-7</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3055,6 +3050,11 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>Summer Rearing</t>
@@ -3062,24 +3062,24 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Management and Protection</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Salmon 16-7</t>
+          <t>Twisp River Upper 01</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3089,52 +3089,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
-        <is>
-          <t>Management and Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Twisp River Upper 01</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Upper Twisp River</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Spawning and Incubation</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
         <is>
           <t>Management</t>
         </is>

--- a/Output/Protection_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_for_WebMap_Table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +427,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -533,12 +533,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
@@ -560,7 +560,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -570,12 +570,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -607,12 +607,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -644,19 +644,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Entiat River Lake 06</t>
+          <t>Entiat River Lake 08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -671,24 +671,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
+          <t>Maintain Reach Function</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Entiat River Lake 07</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -703,24 +708,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
+          <t>Maintain Reach Function</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Entiat River Lake 08</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -730,7 +740,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -740,24 +750,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Entiat River Potato 06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -767,7 +777,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -777,24 +787,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -809,29 +819,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Entiat River Potato 06</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -841,34 +851,34 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -878,7 +888,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -888,34 +898,34 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Smolt Outmigration</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Little Wenatchee River Lower 03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,7 +935,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -935,24 +945,24 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Methow River Fawn 02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -962,7 +972,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -972,51 +982,51 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 03</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1026,7 +1036,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1046,14 +1056,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1073,7 +1083,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1083,14 +1093,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1120,14 +1130,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1137,34 +1147,34 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methow River Thompson 07</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1184,7 +1194,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1194,29 +1204,29 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1226,19 +1236,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1258,24 +1268,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1300,56 +1310,51 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1374,14 +1379,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1399,6 +1404,11 @@
           <t>Maintain Reach Function</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1406,24 +1416,24 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>White River Lower 08</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1443,14 +1453,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>White River Lower 08</t>
+          <t>Big Meadow Creek 01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1460,12 +1470,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Big Meadow Creek</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1475,49 +1485,49 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Big Meadow Creek 01</t>
+          <t>Entiat River Mills 05</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Big Meadow Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1564,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1601,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection</t>
         </is>
       </c>
     </row>
@@ -1628,7 +1638,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1675,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1697,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1697,12 +1707,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1734,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1734,19 +1744,19 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 08</t>
+          <t>Chewuch River Pearrygin 01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1756,7 +1766,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Chewuch River-Doe Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1764,31 +1774,36 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Smolt Outmigration</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Entiat River Lake 02</t>
+          <t>Chewuch River Pearrygin 02</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1803,29 +1818,29 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Management for Protection</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 02</t>
+          <t>Chewuch River Pearrygin 03</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1840,19 +1855,19 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 04</t>
+          <t>Chiwawa River Lower 01</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1862,7 +1877,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1872,24 +1887,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 05</t>
+          <t>Chiwawa River Lower 02</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1899,7 +1914,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1914,19 +1929,19 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 06</t>
+          <t>Chiwawa River Lower 03</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1936,7 +1951,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1944,21 +1959,26 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 04</t>
+          <t>Chiwawa River Lower 04</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1968,7 +1988,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1978,24 +1998,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Chiwawa River Lower 05</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2005,7 +2025,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2015,24 +2035,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Chiwawa River Lower 06</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2042,7 +2062,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2057,19 +2077,19 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Chiwawa River Lower 07</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2079,7 +2099,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2094,29 +2114,29 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2124,36 +2144,31 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2161,36 +2176,31 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Smolt Outmigration</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Antoine 16-1</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2198,31 +2208,36 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Antoine 16-2</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2230,31 +2245,36 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Antoine 16-3</t>
+          <t>Methow River Thompson 03</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2262,31 +2282,36 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Antoine 16-5</t>
+          <t>Methow River Thompson 05</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2294,31 +2319,36 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Antoine 16-6</t>
+          <t>Methow River Thompson 06</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2326,31 +2356,36 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Bonaparte 16-1</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Bonaparte Creek-Lower DS</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2358,31 +2393,36 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Loup Loup 16-1</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2390,31 +2430,36 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Loup Loup 16-2</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2422,31 +2467,36 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Loup Loup 16-3</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2454,31 +2504,36 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Salmon 16-10</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2493,29 +2548,29 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Salmon 16-12</t>
+          <t>Entiat River Mills 02</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2523,31 +2578,36 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Salmon 16-2</t>
+          <t>Entiat River Mills 03</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2555,31 +2615,36 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Salmon 16-4</t>
+          <t>Entiat River Mills 04</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2589,34 +2654,34 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Salmon 16-8</t>
+          <t>Entiat River Mills 06</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2624,36 +2689,31 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Similkameen 16-2</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2663,29 +2723,29 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Similkameen 16-3</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2693,36 +2753,31 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Similkameen 16-6</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2732,29 +2787,29 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Omak 16-2</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2764,19 +2819,19 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Summer Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Omak 16-3</t>
+          <t>Antoine 16-1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2786,7 +2841,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2796,19 +2851,19 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Omak 16-5</t>
+          <t>Antoine 16-2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2818,7 +2873,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2828,19 +2883,19 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Omak 16-1</t>
+          <t>Antoine 16-3</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2850,7 +2905,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2860,19 +2915,19 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Omak 16-6</t>
+          <t>Antoine 16-5</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2882,7 +2937,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2892,19 +2947,19 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Omak 16-7</t>
+          <t>Antoine 16-6</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2914,7 +2969,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2924,19 +2979,19 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Omak 16-8</t>
+          <t>Bonaparte 16-1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2946,7 +3001,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Bonaparte Creek-Lower DS</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2956,19 +3011,19 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Omak 16-9</t>
+          <t>Loup Loup 16-1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2978,7 +3033,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2988,19 +3043,19 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Salmon 16-3</t>
+          <t>Loup Loup 16-2</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3010,7 +3065,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3020,19 +3075,19 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Land Management for Protection</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Salmon 16-7</t>
+          <t>Loup Loup 16-3</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3042,7 +3097,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3050,36 +3105,31 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Management and Protection</t>
+          <t>Land Management for Protection</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Upper 01</t>
+          <t>Salmon 16-10</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Upper Twisp River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3094,12 +3144,576 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Salmon 16-12</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Salmon 16-2</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Salmon 16-4</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Salmon 16-8</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Similkameen 16-2</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Similkameen River</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Similkameen 16-3</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Similkameen River</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Similkameen 16-6</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Similkameen River</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Omak 16-2</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Omak 16-3</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Omak 16-5</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Omak 16-1</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Omak 16-6</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Omak 16-7</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Omak 16-8</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Omak 16-9</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Salmon 16-3</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Salmon 16-7</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>

--- a/Output/Protection_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_for_WebMap_Table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,7 +486,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Fry</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Methow River Fawn 02</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -989,7 +989,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1026,7 +1026,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1056,14 +1056,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1100,7 +1100,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1110,34 +1110,34 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Methow River Thompson 07</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1157,12 +1157,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1174,32 +1174,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1211,7 +1211,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1248,7 +1248,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1285,17 +1285,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1303,14 +1303,9 @@
           <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1322,7 +1317,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1337,12 +1332,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1354,7 +1349,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1369,39 +1364,44 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>White River Lower 08</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1411,19 +1411,19 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>White River Lower 08</t>
+          <t>Big Meadow Creek 01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Big Meadow Creek</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1453,29 +1453,29 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Big Meadow Creek 01</t>
+          <t>Salmon 16-11</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Big Meadow Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
+          <t>Maintain Reach Function,Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Smolt Outmigration</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1497,17 +1497,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>Salmon 16-6</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1517,24 +1517,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Smolt Outmigration,Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+          <t>Land Management for Protection</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Salmon 16-11</t>
+          <t>Salmon 16-9</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1554,24 +1554,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Smolt Outmigration</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Salmon 16-6</t>
+          <t>Tonasket 16-2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1581,44 +1581,44 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Tonasket Creek DS</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
+          <t>Maintain Reach Function</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Land Management for Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Salmon 16-9</t>
+          <t>Twisp River Upper 02</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1628,34 +1628,34 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tonasket 16-2</t>
+          <t>Twisp River Upper 03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Tonasket Creek DS</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1665,49 +1665,44 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Twisp River Upper 02</t>
+          <t>Entiat River Lake 06</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Upper Twisp River</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1719,32 +1714,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Twisp River Upper 03</t>
+          <t>Entiat River Lake 07</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Upper Twisp River</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Maintain Reach Function</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Prevent Limiting Factors</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1756,17 +1746,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 01</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1774,14 +1764,9 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1793,17 +1778,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 02</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1811,36 +1796,31 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Land Management for Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 03</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1850,12 +1830,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1867,17 +1847,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 01</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1887,12 +1867,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1904,7 +1884,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 02</t>
+          <t>Little Wenatchee River Lower 05</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1914,7 +1894,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1929,19 +1909,19 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 03</t>
+          <t>Little Wenatchee River Lower 06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1951,7 +1931,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1959,36 +1939,31 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 04</t>
+          <t>Methow River Thompson 09</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1998,24 +1973,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 05</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2025,7 +2000,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2035,24 +2010,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 06</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2062,7 +2037,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2072,24 +2047,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 07</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2099,7 +2074,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2114,19 +2089,19 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Mills 03</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2136,12 +2111,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2158,7 +2138,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Entiat River Mills 06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2168,12 +2148,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>Prevent Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2190,17 +2175,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Peshastin Creek Lower 06</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Peshastin Creek</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2208,14 +2193,9 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2227,17 +2207,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Salmon 16-10</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2247,34 +2227,34 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Smolt Outmigration</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Methow River Thompson 03</t>
+          <t>Salmon 16-13</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2282,14 +2262,9 @@
           <t>Prevent Limiting Factors</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Smolt Outmigration,Winter Rearing</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2301,17 +2276,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Methow River Thompson 05</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2321,34 +2296,34 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Smolt Outmigration</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+          <t>Land Management for Protection</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Methow River Thompson 06</t>
+          <t>Salmon 16-5</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2363,29 +2338,29 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Smolt Outmigration</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+          <t>Land Management for Protection</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 04</t>
+          <t>Salmon 16-7</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2400,7 +2375,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Smolt Outmigration</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2412,17 +2387,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Salmon 16-8</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2432,12 +2407,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Smolt Outmigration</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2449,17 +2424,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Twisp River Upper 01</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2474,1246 +2449,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Nason Creek Lower 07</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Lower Nason Creek</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Nason Creek Lower 15</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Lower Nason Creek</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Entiat River Mills 02</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Entiat</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Entiat River-Mills Creek</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Entiat River Mills 03</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Entiat</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Entiat River-Mills Creek</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Entiat River Mills 04</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Entiat</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Entiat River-Mills Creek</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Entiat River Mills 06</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Entiat</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Entiat River-Mills Creek</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Twisp River Lower 07</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Lower Twisp River</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Twisp River Lower 08</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Lower Twisp River</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Twisp River Lower 10</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Lower Twisp River</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Twisp River Lower 11</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Lower Twisp River</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Antoine 16-1</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Antoine Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Antoine 16-2</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Antoine Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Antoine 16-3</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Antoine Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Antoine 16-5</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Antoine Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Antoine 16-6</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Antoine Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Bonaparte 16-1</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Bonaparte Creek-Lower DS</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Loup Loup 16-1</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Loup Loup Creek-Lower DS</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Loup Loup 16-2</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Loup Loup Creek-Lower DS</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Loup Loup 16-3</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Loup Loup Creek-Lower DS</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Salmon 16-10</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
           <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Salmon 16-12</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Salmon 16-2</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Salmon 16-4</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Salmon 16-8</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Similkameen 16-2</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Similkameen River</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Similkameen 16-3</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Similkameen River</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Similkameen 16-6</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Similkameen River</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Omak 16-2</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Holding and Maturation,Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Omak 16-3</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Holding and Maturation,Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Omak 16-5</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Holding and Maturation,Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Omak 16-1</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Omak 16-6</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Omak 16-7</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Omak 16-8</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Omak 16-9</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Salmon 16-3</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Salmon 16-7</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>

--- a/Output/Protection_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_for_WebMap_Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t xml:space="preserve">Reach Name</t>
   </si>
@@ -74,6 +74,21 @@
     <t xml:space="preserve">Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
   </si>
   <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 01</t>
   </si>
   <si>
@@ -86,7 +101,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">Fry,Summer Rearing</t>
+    <t xml:space="preserve">Fry,Summer Rearing,Spawning and Incubation,BT Natal Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Lake 03</t>
@@ -95,7 +110,7 @@
     <t xml:space="preserve">Entiat River Lake 04</t>
   </si>
   <si>
-    <t xml:space="preserve">Fry</t>
+    <t xml:space="preserve">Fry,Spawning and Incubation,BT Natal Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Lake 05</t>
@@ -104,6 +119,9 @@
     <t xml:space="preserve">Entiat River Lake 08</t>
   </si>
   <si>
+    <t xml:space="preserve">Fry,Summer Rearing,Spawning and Incubation,BT Natal Rearing,Adult Migration</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 10</t>
   </si>
   <si>
@@ -206,13 +224,46 @@
     <t xml:space="preserve">Twisp River Middle 06</t>
   </si>
   <si>
+    <t xml:space="preserve">Twisp River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing</t>
+  </si>
+  <si>
     <t xml:space="preserve">White River Lower 08</t>
   </si>
   <si>
     <t xml:space="preserve">Lower White River</t>
   </si>
   <si>
-    <t xml:space="preserve">Spawning and Incubation</t>
+    <t xml:space="preserve">Wolf Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek 04</t>
   </si>
   <si>
     <t xml:space="preserve">Big Meadow Creek 01</t>
@@ -221,6 +272,12 @@
     <t xml:space="preserve">Big Meadow Creek</t>
   </si>
   <si>
+    <t xml:space="preserve">Mad River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Mad River</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salmon 16-11</t>
   </si>
   <si>
@@ -248,13 +305,28 @@
     <t xml:space="preserve">Tonasket Creek DS</t>
   </si>
   <si>
-    <t xml:space="preserve">Twisp River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 03</t>
+    <t xml:space="preserve">Twisp River Headwaters 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile Creek DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Creek 01</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Lake 06</t>
@@ -311,15 +383,27 @@
     <t xml:space="preserve">Nason Creek Lower 04</t>
   </si>
   <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nason Creek Lower 05</t>
   </si>
   <si>
     <t xml:space="preserve">Nason Creek Lower 07</t>
   </si>
   <si>
+    <t xml:space="preserve">Wenatchee River Beaver 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Creek Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Beaver Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Mills 03</t>
   </si>
   <si>
@@ -329,6 +413,15 @@
     <t xml:space="preserve">Entiat River Mills 06</t>
   </si>
   <si>
+    <t xml:space="preserve">Little Bridge Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer Rearing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peshastin Creek Lower 06</t>
   </si>
   <si>
@@ -354,6 +447,9 @@
   </si>
   <si>
     <t xml:space="preserve">Salmon 16-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 02</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Upper 01</t>
@@ -785,42 +881,42 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -828,22 +924,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -851,22 +947,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -874,25 +970,25 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -900,10 +996,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -912,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -923,56 +1019,56 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -981,53 +1077,53 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1035,68 +1131,68 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
@@ -1104,22 +1200,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
@@ -1127,7 +1223,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1139,24 +1235,24 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -1173,22 +1269,22 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
@@ -1202,16 +1298,16 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
         <v>19</v>
@@ -1219,65 +1315,65 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
@@ -1288,18 +1384,20 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
-      <c r="E27"/>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
       <c r="F27" t="s">
         <v>18</v>
       </c>
@@ -1309,10 +1407,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
@@ -1320,9 +1418,11 @@
       <c r="D28" t="s">
         <v>17</v>
       </c>
-      <c r="E28"/>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -1333,7 +1433,7 @@
         <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
@@ -1345,30 +1445,30 @@
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
         <v>64</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>66</v>
       </c>
       <c r="G30" t="s">
         <v>19</v>
@@ -1376,79 +1476,75 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
         <v>67</v>
       </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
       <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E31"/>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
       </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
+      <c r="E32"/>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>71</v>
@@ -1457,47 +1553,47 @@
         <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
         <v>72</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -1506,7 +1602,7 @@
         <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
@@ -1514,13 +1610,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -1529,117 +1625,123 @@
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38"/>
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39"/>
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40"/>
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
         <v>85</v>
       </c>
-      <c r="B41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" t="s">
-        <v>39</v>
-      </c>
       <c r="D41" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41"/>
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
       <c r="F41" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
         <v>87</v>
       </c>
-      <c r="B42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" t="s">
-        <v>39</v>
-      </c>
       <c r="D42" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E42"/>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -1647,86 +1749,88 @@
         <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" t="s">
-        <v>45</v>
-      </c>
       <c r="D45" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45"/>
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>41</v>
+      </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
         <v>19</v>
@@ -1734,62 +1838,66 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
-      </c>
-      <c r="E47"/>
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48"/>
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
@@ -1797,114 +1905,108 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" t="s">
-        <v>23</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E52"/>
       <c r="F52" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
-      </c>
-      <c r="E53" t="s">
-        <v>23</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E53"/>
       <c r="F53" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E54"/>
       <c r="F54" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
         <v>19</v>
@@ -1912,22 +2014,20 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E55"/>
       <c r="F55" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -1935,22 +2035,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
         <v>19</v>
@@ -1958,20 +2058,22 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57"/>
+        <v>106</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="G57" t="s">
         <v>19</v>
@@ -1979,16 +2081,16 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -2002,91 +2104,85 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D59" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" t="s">
-        <v>23</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E59"/>
       <c r="F59" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="G59" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>82</v>
-      </c>
-      <c r="E61" t="s">
-        <v>23</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E61"/>
       <c r="F61" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" t="s">
-        <v>23</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E62"/>
       <c r="F62" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="G62" t="s">
         <v>19</v>
@@ -2094,22 +2190,20 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D63" t="s">
-        <v>82</v>
-      </c>
-      <c r="E63" t="s">
-        <v>11</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E63"/>
       <c r="F63" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
@@ -2117,24 +2211,478 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="G64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" t="s">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71" t="s">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>72</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s">
+        <v>116</v>
+      </c>
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>116</v>
+      </c>
+      <c r="G74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>134</v>
+      </c>
+      <c r="D75" t="s">
+        <v>106</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75" t="s">
+        <v>135</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" t="s">
+        <v>106</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76" t="s">
+        <v>72</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" t="s">
+        <v>140</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" t="s">
+        <v>28</v>
+      </c>
+      <c r="F80" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" t="s">
+        <v>106</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" t="s">
+        <v>106</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>72</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" t="s">
+        <v>106</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
+        <v>72</v>
+      </c>
+      <c r="G84" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Output/Protection_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_for_WebMap_Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t xml:space="preserve">Reach Name</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">Action Categories</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River Doe 04</t>
+    <t xml:space="preserve">Chewuch River Doe 05</t>
   </si>
   <si>
     <t xml:space="preserve">Methow</t>
@@ -56,9 +56,6 @@
     <t xml:space="preserve">Land Protection (e.g. conservation easement and/or property acquisition)</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River Doe 05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chewuch River Pearrygin 08</t>
   </si>
   <si>
@@ -89,367 +86,439 @@
     <t xml:space="preserve">Chewuch River Thirtymile 05</t>
   </si>
   <si>
+    <t xml:space="preserve">Chikamin Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Middle 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Lake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry,Summer Rearing,Spawning and Incubation,BT Natal Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry,Summer Rearing,Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry,Spawning and Incubation,BT Natal Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Potato Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Fry,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Management for Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Preston Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hancock Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Fawn Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Little Wenatchee River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Thompson Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mill Creek Peshastin 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Peshastin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Nason Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Summer Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panther Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panther Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower White River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon Creek-Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Smolt Outmigration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Smolt Outmigration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing,Smolt Outmigration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonasket 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonasket Creek DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile Creek DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Creek 01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 01</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Lake Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fry,Summer Rearing,Spawning and Incubation,BT Natal Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fry,Spawning and Incubation,BT Natal Rearing</t>
+    <t xml:space="preserve">Prevent Limiting Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry,Summer Rearing,Spawning and Incubation,BT Natal Rearing,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Fry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Creek Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Mills Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Icicle Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Mad River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peshastin Creek Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smolt Outmigration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Lake 05</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Lake 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fry,Summer Rearing,Spawning and Incubation,BT Natal Rearing,Adult Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Potato Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing,Fry,Summer Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Management for Protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Preston Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hancock Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Fawn Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Little Wenatchee River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Fawn 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Thompson Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Nason Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing,Summer Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower White River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Meadow Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Meadow Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Mad River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon Creek-Lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smolt Outmigration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smolt Outmigration,Spawning and Incubation,Winter Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonasket 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonasket Creek DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Headwaters 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Headwaters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile 16-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile Creek DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Adult Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prevent Limiting Factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing,Fry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver Creek Lower 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Beaver Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Mills 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Mills Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Mills 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Bridge Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Bridge Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summer Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peshastin Creek Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Peshastin Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smolt Outmigration,Winter Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 02</t>
+    <t xml:space="preserve">Lake Creek Entiat 01</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Upper 01</t>
@@ -838,53 +907,53 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -907,7 +976,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -930,7 +999,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -950,65 +1019,65 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -1016,22 +1085,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1039,22 +1108,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -1062,22 +1131,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -1085,22 +1154,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -1108,191 +1177,191 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
         <v>46</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>39</v>
-      </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1304,47 +1373,47 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -1361,179 +1430,181 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
         <v>17</v>
       </c>
-      <c r="E27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>17</v>
       </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>62</v>
-      </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E29"/>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31"/>
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32"/>
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
@@ -1541,68 +1612,64 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" t="s">
         <v>17</v>
       </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>72</v>
-      </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35" t="s">
         <v>17</v>
       </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>72</v>
-      </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
         <v>17</v>
-      </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" t="s">
-        <v>76</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
@@ -1610,105 +1677,105 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
@@ -1720,48 +1787,50 @@
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
         <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42"/>
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
@@ -1769,82 +1838,82 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
         <v>92</v>
       </c>
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" t="s">
-        <v>90</v>
-      </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
         <v>95</v>
-      </c>
-      <c r="B46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" t="s">
-        <v>96</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
@@ -1861,22 +1930,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
         <v>99</v>
       </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s">
-        <v>98</v>
-      </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
@@ -1884,87 +1953,91 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49"/>
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52"/>
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
         <v>13</v>
@@ -1972,20 +2045,22 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53"/>
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G53" t="s">
         <v>13</v>
@@ -1993,110 +2068,110 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55"/>
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" t="s">
-        <v>11</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E58"/>
       <c r="F58" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
@@ -2104,20 +2179,20 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="G59" t="s">
         <v>13</v>
@@ -2125,564 +2200,845 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" t="s">
-        <v>11</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E60"/>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62"/>
+        <v>116</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
       <c r="F62" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63"/>
+        <v>116</v>
+      </c>
+      <c r="E63" t="s">
+        <v>52</v>
+      </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
-      </c>
-      <c r="E65" t="s">
-        <v>28</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E65"/>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E66" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="G66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
-      </c>
-      <c r="E67" t="s">
-        <v>41</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E67"/>
       <c r="F67" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
-      </c>
-      <c r="E68" t="s">
-        <v>11</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E68"/>
       <c r="F68" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" t="s">
-        <v>11</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E69"/>
       <c r="F69" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D70" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E70" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F70" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="G70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
-      </c>
-      <c r="E71"/>
+        <v>116</v>
+      </c>
+      <c r="E71" t="s">
+        <v>27</v>
+      </c>
       <c r="F71" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F72" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F73" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="D74" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C75" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="D75" t="s">
-        <v>106</v>
-      </c>
-      <c r="E75"/>
+        <v>116</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
       <c r="F75" t="s">
         <v>135</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="D76" t="s">
-        <v>106</v>
-      </c>
-      <c r="E76"/>
+        <v>116</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
       <c r="F76" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="G76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F77" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
-      </c>
-      <c r="E78" t="s">
-        <v>28</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E78"/>
       <c r="F78" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="C80" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E80" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E81" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="G81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C82" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
-      </c>
-      <c r="E82" t="s">
-        <v>11</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E82"/>
       <c r="F82" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="G82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
-      </c>
-      <c r="E83" t="s">
-        <v>11</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E83"/>
       <c r="F83" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
-      </c>
-      <c r="E84" t="s">
-        <v>11</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E84"/>
       <c r="F84" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="G84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>152</v>
+      </c>
+      <c r="D85" t="s">
+        <v>116</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85" t="s">
+        <v>153</v>
+      </c>
+      <c r="G85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" t="s">
+        <v>156</v>
+      </c>
+      <c r="D86" t="s">
+        <v>116</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" t="s">
+        <v>66</v>
+      </c>
+      <c r="D87" t="s">
+        <v>116</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87" t="s">
+        <v>67</v>
+      </c>
+      <c r="G87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" t="s">
+        <v>116</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>159</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89" t="s">
+        <v>116</v>
+      </c>
+      <c r="E89" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89" t="s">
+        <v>159</v>
+      </c>
+      <c r="G89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" t="s">
+        <v>116</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" t="s">
+        <v>104</v>
+      </c>
+      <c r="G90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" t="s">
+        <v>116</v>
+      </c>
+      <c r="E91" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" t="s">
+        <v>102</v>
+      </c>
+      <c r="G91" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" t="s">
+        <v>116</v>
+      </c>
+      <c r="E92" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92" t="s">
+        <v>102</v>
+      </c>
+      <c r="G92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" t="s">
+        <v>116</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s">
+        <v>159</v>
+      </c>
+      <c r="G93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" t="s">
+        <v>116</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>167</v>
+      </c>
+      <c r="B95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>67</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" t="s">
+        <v>116</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96" t="s">
+        <v>113</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97" t="s">
+        <v>116</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
+        <v>67</v>
+      </c>
+      <c r="G97" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Output/Protection_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_for_WebMap_Table.xlsx
@@ -71,12 +71,15 @@
     <t xml:space="preserve">Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
   </si>
   <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chewuch River Thirtymile 02</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chewuch River Thirtymile 03</t>
   </si>
   <si>
@@ -107,12 +110,6 @@
     <t xml:space="preserve">Middle Chiwawa River</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiwawa River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Chiwawa River</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Lake 02</t>
   </si>
   <si>
@@ -140,243 +137,231 @@
     <t xml:space="preserve">Entiat River Lake 10</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Potato 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Potato Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Fry,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Management for Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Preston Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hancock Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Fawn Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Little Wenatchee River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Thompson Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mill Creek Peshastin 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Peshastin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Nason Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Summer Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower White River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon Creek-Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smolt Outmigration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smolt Outmigration,Spawning and Incubation,Winter Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonasket 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonasket Creek DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile Creek DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevent Limiting Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry,Spawning and Incubation,BT Natal Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry,Summer Rearing,Spawning and Incubation,BT Natal Rearing,Adult Migration</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 11</t>
   </si>
   <si>
-    <t xml:space="preserve">Fry,Spawning and Incubation,BT Natal Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Potato Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing,Fry,Summer Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Management for Protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Preston Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hancock Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Fawn Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Little Wenatchee River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Fawn 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Thompson Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mill Creek Peshastin 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Peshastin Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Nason Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing,Summer Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panther Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panther Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower White River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Meadow Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Meadow Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Meadow Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon Creek-Lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Smolt Outmigration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Smolt Outmigration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing,Smolt Outmigration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonasket 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonasket Creek DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Headwaters 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Headwaters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile 16-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile Creek DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prevent Limiting Factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fry,Summer Rearing,Spawning and Incubation,BT Natal Rearing,Adult Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 07</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Preston 01</t>
   </si>
   <si>
@@ -389,9 +374,6 @@
     <t xml:space="preserve">Entiat River Preston 05</t>
   </si>
   <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Little Wenatchee River Lower 06</t>
   </si>
   <si>
@@ -485,18 +467,15 @@
     <t xml:space="preserve">Lower Mad River</t>
   </si>
   <si>
-    <t xml:space="preserve">Peshastin Creek Lower 06</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salmon 16-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Smolt Outmigration</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salmon 16-13</t>
   </si>
   <si>
+    <t xml:space="preserve">Smolt Outmigration,Winter Rearing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salmon 16-4</t>
   </si>
   <si>
@@ -518,7 +497,28 @@
     <t xml:space="preserve">Entiat River Lake 05</t>
   </si>
   <si>
-    <t xml:space="preserve">Lake Creek Entiat 01</t>
+    <t xml:space="preserve">Etienne Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Peshastin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Mad River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 04</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Upper 01</t>
@@ -1019,56 +1019,56 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1100,7 +1100,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1123,7 +1123,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -1131,13 +1131,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1146,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -1154,13 +1154,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -1169,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -1177,13 +1177,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1192,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -1200,25 +1200,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1226,19 +1226,19 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
@@ -1246,22 +1246,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
@@ -1269,13 +1269,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -1284,30 +1284,30 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
         <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -1315,36 +1315,36 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -1361,19 +1361,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1384,19 +1384,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1407,13 +1407,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -1430,13 +1430,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -1453,19 +1453,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -1476,19 +1476,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -1499,34 +1499,34 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>16</v>
@@ -1535,7 +1535,7 @@
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
         <v>18</v>
@@ -1543,22 +1543,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G31" t="s">
         <v>18</v>
@@ -1566,22 +1566,22 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
         <v>18</v>
@@ -1589,36 +1589,34 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E33"/>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
@@ -1633,28 +1631,30 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="E35"/>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
       <c r="F35" t="s">
         <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -1669,7 +1669,7 @@
         <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
@@ -1677,13 +1677,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
@@ -1692,7 +1692,7 @@
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
         <v>13</v>
@@ -1700,13 +1700,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
@@ -1715,7 +1715,7 @@
         <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s">
         <v>13</v>
@@ -1723,42 +1723,42 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
         <v>83</v>
       </c>
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" t="s">
-        <v>84</v>
-      </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -1769,22 +1769,22 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="G41" t="s">
         <v>18</v>
@@ -1792,36 +1792,36 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
@@ -1838,36 +1838,36 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -1884,22 +1884,22 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
         <v>94</v>
       </c>
-      <c r="B46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
         <v>95</v>
-      </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" t="s">
-        <v>12</v>
       </c>
       <c r="G46" t="s">
         <v>13</v>
@@ -1910,148 +1910,146 @@
         <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F49" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
       </c>
-      <c r="E52" t="s">
-        <v>11</v>
-      </c>
+      <c r="E52"/>
       <c r="F52" t="s">
         <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
@@ -2060,7 +2058,7 @@
         <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="G53" t="s">
         <v>13</v>
@@ -2068,66 +2066,66 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
       </c>
-      <c r="E54"/>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
       <c r="F54" t="s">
         <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
         <v>34</v>
       </c>
-      <c r="C55" t="s">
-        <v>35</v>
-      </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" t="s">
-        <v>11</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E56"/>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
         <v>13</v>
@@ -2135,43 +2133,43 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
         <v>34</v>
       </c>
-      <c r="C57" t="s">
-        <v>35</v>
-      </c>
       <c r="D57" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" t="s">
-        <v>27</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E57"/>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
         <v>34</v>
       </c>
-      <c r="C58" t="s">
-        <v>35</v>
-      </c>
       <c r="D58" t="s">
-        <v>116</v>
-      </c>
-      <c r="E58"/>
+        <v>110</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
@@ -2179,41 +2177,43 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>116</v>
-      </c>
-      <c r="E60"/>
+        <v>110</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s">
         <v>18</v>
@@ -2221,20 +2221,22 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
         <v>34</v>
       </c>
-      <c r="C61" t="s">
-        <v>51</v>
-      </c>
       <c r="D61" t="s">
-        <v>116</v>
-      </c>
-      <c r="E61"/>
+        <v>110</v>
+      </c>
+      <c r="E61" t="s">
+        <v>45</v>
+      </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s">
         <v>18</v>
@@ -2242,45 +2244,43 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D62" t="s">
-        <v>116</v>
-      </c>
-      <c r="E62" t="s">
-        <v>11</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E62"/>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="G63" t="s">
         <v>18</v>
@@ -2288,66 +2288,62 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>116</v>
-      </c>
-      <c r="E64" t="s">
-        <v>11</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E64"/>
       <c r="F64" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D65" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D66" t="s">
-        <v>116</v>
-      </c>
-      <c r="E66" t="s">
-        <v>11</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E66"/>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G66" t="s">
         <v>18</v>
@@ -2355,20 +2351,22 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D67" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67"/>
+        <v>110</v>
+      </c>
+      <c r="E67" t="s">
+        <v>45</v>
+      </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G67" t="s">
         <v>18</v>
@@ -2376,20 +2374,22 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D68" t="s">
-        <v>116</v>
-      </c>
-      <c r="E68"/>
+        <v>110</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="G68" t="s">
         <v>18</v>
@@ -2397,20 +2397,22 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>116</v>
-      </c>
-      <c r="E69"/>
+        <v>110</v>
+      </c>
+      <c r="E69" t="s">
+        <v>28</v>
+      </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G69" t="s">
         <v>18</v>
@@ -2418,22 +2420,22 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E70" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G70" t="s">
         <v>18</v>
@@ -2441,22 +2443,22 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D71" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E71" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="G71" t="s">
         <v>18</v>
@@ -2464,22 +2466,22 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D72" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E72" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G72" t="s">
         <v>18</v>
@@ -2487,22 +2489,22 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E73" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G73" t="s">
         <v>18</v>
@@ -2510,22 +2512,22 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D74" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G74" t="s">
         <v>18</v>
@@ -2533,22 +2535,20 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D75" t="s">
-        <v>116</v>
-      </c>
-      <c r="E75" t="s">
-        <v>11</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E75"/>
       <c r="F75" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G75" t="s">
         <v>18</v>
@@ -2556,45 +2556,45 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="D76" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="G76" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="D77" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G77" t="s">
         <v>18</v>
@@ -2602,20 +2602,22 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="D78" t="s">
-        <v>116</v>
-      </c>
-      <c r="E78"/>
+        <v>110</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
       <c r="F78" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G78" t="s">
         <v>18</v>
@@ -2623,25 +2625,23 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" t="s">
         <v>142</v>
       </c>
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>110</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" t="s">
         <v>143</v>
       </c>
-      <c r="D79" t="s">
-        <v>116</v>
-      </c>
-      <c r="E79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" t="s">
-        <v>67</v>
-      </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -2649,19 +2649,17 @@
         <v>144</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C80" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D80" t="s">
-        <v>116</v>
-      </c>
-      <c r="E80" t="s">
-        <v>52</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E80"/>
       <c r="F80" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G80" t="s">
         <v>18</v>
@@ -2669,22 +2667,20 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
         <v>146</v>
       </c>
-      <c r="B81" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" t="s">
-        <v>145</v>
-      </c>
       <c r="D81" t="s">
-        <v>116</v>
-      </c>
-      <c r="E81" t="s">
-        <v>11</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E81"/>
       <c r="F81" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="G81" t="s">
         <v>18</v>
@@ -2692,20 +2688,20 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D82" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G82" t="s">
         <v>18</v>
@@ -2713,23 +2709,23 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>149</v>
+      </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" t="s">
         <v>150</v>
       </c>
-      <c r="B83" t="s">
-        <v>25</v>
-      </c>
-      <c r="C83" t="s">
-        <v>148</v>
-      </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
@@ -2737,36 +2733,40 @@
         <v>151</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="D84" t="s">
-        <v>116</v>
-      </c>
-      <c r="E84"/>
+        <v>110</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
       <c r="F84" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="G84" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="D85" t="s">
-        <v>116</v>
-      </c>
-      <c r="E85"/>
+        <v>110</v>
+      </c>
+      <c r="E85" t="s">
+        <v>28</v>
+      </c>
       <c r="F85" t="s">
         <v>153</v>
       </c>
@@ -2776,87 +2776,91 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="D86" t="s">
-        <v>116</v>
-      </c>
-      <c r="E86"/>
+        <v>110</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D87" t="s">
-        <v>116</v>
-      </c>
-      <c r="E87"/>
+        <v>110</v>
+      </c>
+      <c r="E87" t="s">
+        <v>28</v>
+      </c>
       <c r="F87" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="G87" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D88" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F88" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D89" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="G89" t="s">
         <v>18</v>
@@ -2864,68 +2868,64 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="D90" t="s">
-        <v>116</v>
-      </c>
-      <c r="E90" t="s">
-        <v>11</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E90"/>
       <c r="F90" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="G90" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="D91" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="G91" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="D92" t="s">
-        <v>116</v>
-      </c>
-      <c r="E92" t="s">
-        <v>27</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E92"/>
       <c r="F92" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="G92" t="s">
         <v>18</v>
@@ -2933,46 +2933,44 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>163</v>
+      </c>
+      <c r="B93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" t="s">
         <v>164</v>
       </c>
-      <c r="B93" t="s">
-        <v>98</v>
-      </c>
-      <c r="C93" t="s">
-        <v>99</v>
-      </c>
       <c r="D93" t="s">
-        <v>116</v>
-      </c>
-      <c r="E93" t="s">
-        <v>11</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E93"/>
       <c r="F93" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G93" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B94" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D94" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="G94" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95">
@@ -2980,19 +2978,17 @@
         <v>167</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="D95" t="s">
-        <v>116</v>
-      </c>
-      <c r="E95" t="s">
-        <v>11</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E95"/>
       <c r="F95" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="G95" t="s">
         <v>13</v>
@@ -3003,17 +2999,17 @@
         <v>168</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="D96" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="G96" t="s">
         <v>13</v>
@@ -3027,16 +3023,16 @@
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D97" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G97" t="s">
         <v>13</v>
